--- a/保险公司命名及编号规范v1.0.xlsx
+++ b/保险公司命名及编号规范v1.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254259B-3BE2-44EE-A52C-C6BE009076C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="8" r:id="rId1"/>
@@ -20,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F168" authorId="0">
+    <comment ref="F168" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1128">
   <si>
     <t>保险公司命名及编号规范</t>
   </si>
@@ -3661,19 +3667,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0&quot;、&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0&quot;、&quot;"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3785,7 +3787,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3796,146 +3798,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3946,8 +3812,19 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3972,194 +3849,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4182,262 +3873,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4453,7 +3905,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4470,7 +3922,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4494,13 +3946,13 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4516,15 +3968,15 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="57" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4540,13 +3992,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4560,90 +4012,47 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="57" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="57" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00DCA943"/>
+      <color rgb="FFDCA943"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4659,13 +4068,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4937,35 +4352,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="43" customWidth="1"/>
-    <col min="3" max="4" width="3.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.62890625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="5.62890625" style="43" customWidth="1"/>
+    <col min="3" max="4" width="3.62890625" style="11" customWidth="1"/>
     <col min="5" max="6" width="9" style="11"/>
-    <col min="7" max="7" width="14.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.47265625" style="11" customWidth="1"/>
     <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="22.2" spans="1:2">
+    <row r="1" spans="1:4" s="41" customFormat="1" ht="22.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="3" ht="16.2" spans="1:2">
+    <row r="3" spans="1:4" ht="16.2">
       <c r="A3" s="45">
         <v>1</v>
       </c>
@@ -4973,43 +4386,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="16.2" spans="1:2">
+    <row r="4" spans="1:4" ht="16.2">
       <c r="A4" s="45"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="16.2" spans="1:2">
+    <row r="5" spans="1:4" ht="16.2">
       <c r="A5" s="45"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="16.2" spans="1:2">
+    <row r="6" spans="1:4" ht="16.2">
       <c r="A6" s="45"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:4">
       <c r="B7" s="43">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:4">
       <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:4">
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:4">
       <c r="B10" s="43">
         <v>1.2</v>
       </c>
@@ -5017,27 +4430,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:4">
       <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:4">
       <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:4">
       <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="1:4">
       <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:4">
       <c r="B15" s="43">
         <v>1.3</v>
       </c>
@@ -5045,12 +4458,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:4">
       <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:7">
       <c r="B17" s="43">
         <v>1.4</v>
       </c>
@@ -5058,12 +4471,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="2:7">
       <c r="C18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="2:7">
       <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
@@ -5071,7 +4484,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="2:7">
       <c r="C20" s="11" t="s">
         <v>18</v>
       </c>
@@ -5079,7 +4492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="2:7">
       <c r="C21" s="11" t="s">
         <v>19</v>
       </c>
@@ -5087,7 +4500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="2:7">
       <c r="C22" s="11" t="s">
         <v>20</v>
       </c>
@@ -5095,7 +4508,7 @@
         <v>43574</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:7">
       <c r="B23" s="43">
         <v>1.5</v>
       </c>
@@ -5103,12 +4516,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="2:7">
       <c r="C24" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="2:7">
       <c r="C25" s="11" t="s">
         <v>23</v>
       </c>
@@ -5116,7 +4529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="2:7">
       <c r="C26" s="11" t="s">
         <v>24</v>
       </c>
@@ -5124,7 +4537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="2:7">
       <c r="C27" s="11" t="s">
         <v>25</v>
       </c>
@@ -5132,7 +4545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:7">
+    <row r="28" spans="2:7">
       <c r="C28" s="11" t="s">
         <v>26</v>
       </c>
@@ -5140,7 +4553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="2:7">
       <c r="C29" s="11" t="s">
         <v>27</v>
       </c>
@@ -5148,7 +4561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:7">
+    <row r="30" spans="2:7">
       <c r="C30" s="11" t="s">
         <v>28</v>
       </c>
@@ -5156,7 +4569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:7">
+    <row r="31" spans="2:7">
       <c r="C31" s="11" t="s">
         <v>29</v>
       </c>
@@ -5164,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:7">
+    <row r="32" spans="2:7">
       <c r="C32" s="11" t="s">
         <v>20</v>
       </c>
@@ -5172,10 +4585,10 @@
         <v>43574</v>
       </c>
     </row>
-    <row r="33" ht="16.2" spans="1:1">
+    <row r="33" spans="1:16" ht="16.2">
       <c r="A33" s="45"/>
     </row>
-    <row r="34" ht="16.2" spans="1:2">
+    <row r="34" spans="1:16" ht="16.2">
       <c r="A34" s="45">
         <v>2</v>
       </c>
@@ -5183,13 +4596,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" ht="16.2" spans="1:2">
+    <row r="35" spans="1:16" ht="16.2">
       <c r="A35" s="45"/>
       <c r="B35" s="46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="2:16">
+    <row r="36" spans="1:16" ht="16.5">
       <c r="B36" s="48" t="s">
         <v>32</v>
       </c>
@@ -5210,7 +4623,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" ht="16.5" spans="2:16">
+    <row r="37" spans="1:16" ht="16.5">
       <c r="B37" s="49"/>
       <c r="C37" s="2" t="s">
         <v>34</v>
@@ -5229,7 +4642,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" ht="16.5" spans="2:16">
+    <row r="38" spans="1:16" ht="16.5">
       <c r="B38" s="49"/>
       <c r="C38" s="2" t="s">
         <v>35</v>
@@ -5248,7 +4661,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" ht="16.5" spans="2:16">
+    <row r="39" spans="1:16" ht="16.5">
       <c r="B39" s="48" t="s">
         <v>36</v>
       </c>
@@ -5269,7 +4682,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" ht="18" spans="2:16">
+    <row r="40" spans="1:16" ht="18.3">
       <c r="B40" s="49"/>
       <c r="C40" s="2" t="s">
         <v>38</v>
@@ -5288,7 +4701,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" ht="18" spans="2:16">
+    <row r="41" spans="1:16" ht="18.3">
       <c r="B41" s="49"/>
       <c r="C41" s="2" t="s">
         <v>39</v>
@@ -5307,7 +4720,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" ht="16.5" spans="2:16">
+    <row r="42" spans="1:16" ht="16.5">
       <c r="B42" s="49"/>
       <c r="C42" s="2" t="s">
         <v>40</v>
@@ -5326,7 +4739,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" ht="16.5" spans="2:16">
+    <row r="43" spans="1:16" ht="16.5">
       <c r="B43" s="48" t="s">
         <v>41</v>
       </c>
@@ -5347,7 +4760,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" ht="16.5" spans="2:16">
+    <row r="44" spans="1:16" ht="16.5">
       <c r="B44" s="48" t="s">
         <v>43</v>
       </c>
@@ -5368,7 +4781,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" ht="16.5" spans="2:16">
+    <row r="45" spans="1:16" ht="16.5">
       <c r="B45" s="48"/>
       <c r="C45" s="2" t="s">
         <v>45</v>
@@ -5387,7 +4800,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" ht="16.5" spans="2:16">
+    <row r="46" spans="1:16" ht="16.5">
       <c r="B46" s="48"/>
       <c r="C46" s="2" t="s">
         <v>46</v>
@@ -5406,7 +4819,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" ht="16.5" spans="2:16">
+    <row r="47" spans="1:16" ht="16.5">
       <c r="B47" s="48" t="s">
         <v>47</v>
       </c>
@@ -5427,7 +4840,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" ht="16.5" spans="2:16">
+    <row r="48" spans="1:16" ht="16.5">
       <c r="B48" s="48"/>
       <c r="C48" s="2" t="s">
         <v>49</v>
@@ -5446,7 +4859,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" ht="18" spans="2:16">
+    <row r="49" spans="2:16" ht="18.3">
       <c r="B49" s="48"/>
       <c r="C49" s="2" t="s">
         <v>50</v>
@@ -5465,7 +4878,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" ht="16.5" spans="2:16">
+    <row r="50" spans="2:16" ht="16.5">
       <c r="B50" s="48" t="s">
         <v>51</v>
       </c>
@@ -5486,12 +4899,12 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" ht="16.2" spans="2:2">
+    <row r="51" spans="2:16" ht="16.2">
       <c r="B51" s="46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="2:14">
+    <row r="52" spans="2:16" ht="16.5">
       <c r="B52" s="48" t="s">
         <v>54</v>
       </c>
@@ -5510,7 +4923,7 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" ht="16.5" spans="2:14">
+    <row r="53" spans="2:16" ht="16.5">
       <c r="B53" s="49"/>
       <c r="C53" s="2" t="s">
         <v>55</v>
@@ -5527,7 +4940,7 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" ht="16.5" spans="2:14">
+    <row r="54" spans="2:16" ht="16.5">
       <c r="B54" s="49"/>
       <c r="C54" s="2" t="s">
         <v>56</v>
@@ -5544,7 +4957,7 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" ht="16.5" spans="2:14">
+    <row r="55" spans="2:16" ht="16.5">
       <c r="B55" s="48" t="s">
         <v>57</v>
       </c>
@@ -5563,7 +4976,7 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" ht="16.5" spans="2:14">
+    <row r="56" spans="2:16" ht="16.5">
       <c r="B56" s="49"/>
       <c r="C56" s="2" t="s">
         <v>58</v>
@@ -5580,7 +4993,7 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" ht="18" spans="2:14">
+    <row r="57" spans="2:16" ht="18.3">
       <c r="B57" s="49"/>
       <c r="C57" s="2" t="s">
         <v>59</v>
@@ -5597,7 +5010,7 @@
       <c r="M57" s="50"/>
       <c r="N57" s="50"/>
     </row>
-    <row r="58" ht="18" spans="2:14">
+    <row r="58" spans="2:16" ht="18.3">
       <c r="B58" s="49"/>
       <c r="C58" s="2" t="s">
         <v>60</v>
@@ -5614,7 +5027,7 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" ht="16.5" spans="2:14">
+    <row r="59" spans="2:16" ht="16.5">
       <c r="B59" s="48" t="s">
         <v>61</v>
       </c>
@@ -5633,7 +5046,7 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" ht="16.5" spans="2:14">
+    <row r="60" spans="2:16" ht="16.5">
       <c r="B60" s="48" t="s">
         <v>63</v>
       </c>
@@ -5652,7 +5065,7 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" ht="16.5" spans="2:14">
+    <row r="61" spans="2:16" ht="16.5">
       <c r="B61" s="48"/>
       <c r="C61" s="2" t="s">
         <v>45</v>
@@ -5669,7 +5082,7 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" ht="16.5" spans="2:14">
+    <row r="62" spans="2:16" ht="16.5">
       <c r="B62" s="48"/>
       <c r="C62" s="2" t="s">
         <v>46</v>
@@ -5686,7 +5099,7 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" ht="16.5" spans="2:14">
+    <row r="63" spans="2:16" ht="16.5">
       <c r="B63" s="48" t="s">
         <v>64</v>
       </c>
@@ -5705,7 +5118,7 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" ht="16.5" spans="2:14">
+    <row r="64" spans="2:16" ht="16.5">
       <c r="B64" s="48"/>
       <c r="C64" s="2" t="s">
         <v>49</v>
@@ -5722,7 +5135,7 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" ht="18" spans="2:14">
+    <row r="65" spans="1:15" ht="18.3">
       <c r="B65" s="48"/>
       <c r="C65" s="50" t="s">
         <v>65</v>
@@ -5739,7 +5152,7 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" ht="18" spans="2:14">
+    <row r="66" spans="1:15" ht="18.3">
       <c r="B66" s="51"/>
       <c r="C66" s="2" t="s">
         <v>66</v>
@@ -5756,7 +5169,7 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" ht="16.5" spans="2:14">
+    <row r="67" spans="1:15" ht="16.5">
       <c r="B67" s="48" t="s">
         <v>67</v>
       </c>
@@ -5775,13 +5188,13 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" ht="16.5" spans="2:14">
+    <row r="68" spans="1:15" ht="16.5">
       <c r="B68" s="51"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" ht="16.2" spans="1:2">
+    <row r="69" spans="1:15" ht="16.2">
       <c r="A69" s="45">
         <v>3</v>
       </c>
@@ -5789,12 +5202,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" ht="16.2" spans="2:2">
+    <row r="70" spans="1:15" ht="16.2">
       <c r="B70" s="46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="2:15">
+    <row r="71" spans="1:15" ht="16.5">
       <c r="B71" s="52">
         <v>3.1</v>
       </c>
@@ -5814,7 +5227,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" ht="16.5" spans="2:15">
+    <row r="72" spans="1:15" ht="16.5">
       <c r="B72" s="52"/>
       <c r="C72" s="2" t="s">
         <v>70</v>
@@ -5831,7 +5244,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" ht="16.5" spans="2:15">
+    <row r="73" spans="1:15" ht="16.5">
       <c r="B73" s="52"/>
       <c r="C73" s="53" t="s">
         <v>71</v>
@@ -5848,7 +5261,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" ht="16.5" spans="2:15">
+    <row r="74" spans="1:15" ht="16.5">
       <c r="B74" s="52"/>
       <c r="C74" s="2" t="s">
         <v>72</v>
@@ -5865,7 +5278,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" ht="16.5" spans="2:15">
+    <row r="75" spans="1:15" ht="16.5">
       <c r="B75" s="52">
         <v>3.2</v>
       </c>
@@ -5885,7 +5298,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" ht="16.5" spans="2:15">
+    <row r="76" spans="1:15" ht="16.5">
       <c r="B76" s="48"/>
       <c r="C76" s="2" t="s">
         <v>74</v>
@@ -5903,7 +5316,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" ht="16.5" spans="2:15">
+    <row r="77" spans="1:15" ht="16.5">
       <c r="B77" s="48"/>
       <c r="C77" s="2" t="s">
         <v>76</v>
@@ -5921,7 +5334,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" ht="16.5" spans="2:15">
+    <row r="78" spans="1:15" ht="16.5">
       <c r="B78" s="48"/>
       <c r="C78" s="2"/>
       <c r="E78" s="2" t="s">
@@ -5936,7 +5349,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" ht="16.5" spans="2:15">
+    <row r="79" spans="1:15" ht="16.5">
       <c r="B79" s="48"/>
       <c r="C79" s="2" t="s">
         <v>79</v>
@@ -5954,12 +5367,12 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" ht="16.2" spans="2:2">
+    <row r="80" spans="1:15" ht="16.2">
       <c r="B80" s="46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="2:15">
+    <row r="81" spans="1:15" ht="16.5">
       <c r="B81" s="52">
         <v>3.3</v>
       </c>
@@ -5979,7 +5392,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="60"/>
     </row>
-    <row r="82" ht="16.5" spans="2:15">
+    <row r="82" spans="1:15" ht="16.5">
       <c r="B82" s="52"/>
       <c r="C82" s="2" t="s">
         <v>82</v>
@@ -5997,7 +5410,7 @@
       <c r="N82" s="50"/>
       <c r="O82" s="60"/>
     </row>
-    <row r="83" ht="16.5" spans="2:15">
+    <row r="83" spans="1:15" ht="16.5">
       <c r="B83" s="52"/>
       <c r="C83" s="54" t="s">
         <v>83</v>
@@ -6015,7 +5428,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="60"/>
     </row>
-    <row r="84" ht="16.5" spans="2:15">
+    <row r="84" spans="1:15" ht="16.5">
       <c r="B84" s="52"/>
       <c r="C84" s="2" t="s">
         <v>84</v>
@@ -6032,7 +5445,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="60"/>
     </row>
-    <row r="85" ht="16.5" spans="2:15">
+    <row r="85" spans="1:15" ht="16.5">
       <c r="B85" s="52">
         <v>3.4</v>
       </c>
@@ -6052,7 +5465,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="60"/>
     </row>
-    <row r="86" ht="16.5" spans="2:15">
+    <row r="86" spans="1:15" ht="16.5">
       <c r="B86" s="48"/>
       <c r="C86" s="2" t="s">
         <v>74</v>
@@ -6070,7 +5483,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="61"/>
     </row>
-    <row r="87" ht="16.5" spans="2:15">
+    <row r="87" spans="1:15" ht="16.5">
       <c r="B87" s="48"/>
       <c r="C87" s="2" t="s">
         <v>76</v>
@@ -6088,7 +5501,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="60"/>
     </row>
-    <row r="88" ht="16.5" spans="2:15">
+    <row r="88" spans="1:15" ht="16.5">
       <c r="B88" s="48"/>
       <c r="C88" s="2"/>
       <c r="E88" s="2" t="s">
@@ -6103,7 +5516,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" ht="16.5" spans="2:15">
+    <row r="89" spans="1:15" ht="16.5">
       <c r="B89" s="48"/>
       <c r="C89" s="2" t="s">
         <v>79</v>
@@ -6121,7 +5534,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="91" ht="16.2" spans="1:2">
+    <row r="91" spans="1:15" ht="16.2">
       <c r="A91" s="45">
         <v>4</v>
       </c>
@@ -6129,7 +5542,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="2:8">
+    <row r="92" spans="1:15" ht="16.5">
       <c r="B92" s="48" t="s">
         <v>88</v>
       </c>
@@ -6142,7 +5555,7 @@
       <c r="G92" s="55"/>
       <c r="H92" s="55"/>
     </row>
-    <row r="93" ht="16.5" spans="2:12">
+    <row r="93" spans="1:15" ht="16.5">
       <c r="B93" s="48" t="s">
         <v>90</v>
       </c>
@@ -6159,7 +5572,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" ht="16.5" spans="2:12">
+    <row r="94" spans="1:15" ht="16.5">
       <c r="B94" s="48" t="s">
         <v>92</v>
       </c>
@@ -6176,7 +5589,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" ht="16.5" spans="2:12">
+    <row r="95" spans="1:15" ht="16.5">
       <c r="B95" s="48" t="s">
         <v>94</v>
       </c>
@@ -6193,7 +5606,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" ht="16.5" spans="2:12">
+    <row r="96" spans="1:15" ht="16.5">
       <c r="B96" s="48" t="s">
         <v>96</v>
       </c>
@@ -6210,7 +5623,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" ht="16.5" spans="2:12">
+    <row r="97" spans="1:12" ht="16.5">
       <c r="B97" s="48" t="s">
         <v>98</v>
       </c>
@@ -6227,7 +5640,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" ht="16.5" spans="2:12">
+    <row r="98" spans="1:12" ht="16.5">
       <c r="B98" s="48" t="s">
         <v>100</v>
       </c>
@@ -6244,7 +5657,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" ht="16.5" spans="2:12">
+    <row r="99" spans="1:12" ht="16.5">
       <c r="B99" s="48"/>
       <c r="C99" s="57"/>
       <c r="D99" s="58"/>
@@ -6257,7 +5670,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" ht="16.5" spans="1:12">
+    <row r="100" spans="1:12" ht="16.8">
       <c r="A100" s="45">
         <v>5</v>
       </c>
@@ -6269,7 +5682,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" ht="16.5" spans="2:12">
+    <row r="101" spans="1:12" ht="16.8">
       <c r="B101" s="46" t="s">
         <v>31</v>
       </c>
@@ -6278,7 +5691,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" ht="16.5" spans="2:12">
+    <row r="102" spans="1:12" ht="16.5">
       <c r="B102" s="48" t="s">
         <v>103</v>
       </c>
@@ -6295,7 +5708,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" ht="16.5" spans="2:12">
+    <row r="103" spans="1:12" ht="16.5">
       <c r="B103" s="48"/>
       <c r="C103" s="2" t="s">
         <v>105</v>
@@ -6309,7 +5722,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" ht="16.5" spans="2:12">
+    <row r="104" spans="1:12" ht="16.5">
       <c r="B104" s="48"/>
       <c r="C104" s="2" t="s">
         <v>106</v>
@@ -6323,7 +5736,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" ht="16.5" spans="2:12">
+    <row r="105" spans="1:12" ht="16.5">
       <c r="B105" s="48"/>
       <c r="C105" s="2" t="s">
         <v>107</v>
@@ -6337,7 +5750,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" ht="16.5" spans="2:12">
+    <row r="106" spans="1:12" ht="16.5">
       <c r="B106" s="48"/>
       <c r="C106" s="2" t="s">
         <v>108</v>
@@ -6350,7 +5763,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" ht="16.5" spans="2:12">
+    <row r="107" spans="1:12" ht="16.5">
       <c r="B107" s="48" t="s">
         <v>109</v>
       </c>
@@ -6366,7 +5779,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" ht="16.5" spans="2:12">
+    <row r="108" spans="1:12" ht="16.5">
       <c r="B108" s="48"/>
       <c r="C108" s="2" t="s">
         <v>111</v>
@@ -6379,7 +5792,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" ht="16.5" spans="2:12">
+    <row r="109" spans="1:12" ht="16.5">
       <c r="B109" s="48"/>
       <c r="C109" s="2" t="s">
         <v>112</v>
@@ -6392,7 +5805,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" ht="16.5" spans="2:12">
+    <row r="110" spans="1:12" ht="16.5">
       <c r="B110" s="48"/>
       <c r="C110" s="2" t="s">
         <v>113</v>
@@ -6405,7 +5818,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" ht="16.5" spans="2:12">
+    <row r="111" spans="1:12" ht="16.5">
       <c r="B111" s="48"/>
       <c r="C111" s="2" t="s">
         <v>114</v>
@@ -6418,7 +5831,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" ht="16.5" spans="2:12">
+    <row r="112" spans="1:12" ht="16.5">
       <c r="B112" s="48" t="s">
         <v>115</v>
       </c>
@@ -6435,7 +5848,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" ht="16.5" spans="2:12">
+    <row r="113" spans="2:12" ht="16.5">
       <c r="B113" s="48"/>
       <c r="C113" s="2" t="s">
         <v>117</v>
@@ -6450,7 +5863,7 @@
       </c>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" ht="16.5" spans="2:12">
+    <row r="114" spans="2:12" ht="16.5">
       <c r="B114" s="48"/>
       <c r="C114" s="2" t="s">
         <v>120</v>
@@ -6465,7 +5878,7 @@
       </c>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" ht="16.5" spans="2:12">
+    <row r="115" spans="2:12" ht="16.5">
       <c r="B115" s="48"/>
       <c r="C115" s="2" t="s">
         <v>122</v>
@@ -6480,7 +5893,7 @@
       </c>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" ht="16.5" spans="2:12">
+    <row r="116" spans="2:12" ht="16.5">
       <c r="B116" s="48"/>
       <c r="C116" s="2" t="s">
         <v>124</v>
@@ -6495,7 +5908,7 @@
       </c>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" ht="16.5" spans="2:7">
+    <row r="117" spans="2:12" ht="16.5">
       <c r="B117" s="48"/>
       <c r="C117" s="2" t="s">
         <v>126</v>
@@ -6509,7 +5922,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="2:12">
+    <row r="118" spans="2:12" ht="16.5">
       <c r="B118" s="48"/>
       <c r="C118" s="2" t="s">
         <v>128</v>
@@ -6527,7 +5940,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" ht="16.5" spans="2:12">
+    <row r="119" spans="2:12" ht="16.5">
       <c r="B119" s="48"/>
       <c r="C119" s="2" t="s">
         <v>130</v>
@@ -6545,7 +5958,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" ht="16.5" spans="2:12">
+    <row r="120" spans="2:12" ht="16.5">
       <c r="B120" s="48" t="s">
         <v>132</v>
       </c>
@@ -6559,7 +5972,7 @@
       <c r="H120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" ht="16.5" spans="2:12">
+    <row r="121" spans="2:12" ht="16.5">
       <c r="B121" s="48"/>
       <c r="C121" s="2" t="s">
         <v>134</v>
@@ -6573,7 +5986,7 @@
       </c>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" ht="16.5" spans="2:12">
+    <row r="122" spans="2:12" ht="16.5">
       <c r="B122" s="48"/>
       <c r="C122" s="2" t="s">
         <v>136</v>
@@ -6587,7 +6000,7 @@
       </c>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" ht="16.5" spans="2:12">
+    <row r="123" spans="2:12" ht="16.5">
       <c r="B123" s="48"/>
       <c r="C123" s="2" t="s">
         <v>138</v>
@@ -6601,7 +6014,7 @@
       </c>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" ht="16.5" spans="2:12">
+    <row r="124" spans="2:12" ht="16.5">
       <c r="B124" s="48"/>
       <c r="C124" s="2" t="s">
         <v>140</v>
@@ -6616,7 +6029,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" ht="16.5" spans="2:12">
+    <row r="125" spans="2:12" ht="16.8">
       <c r="B125" s="46" t="s">
         <v>53</v>
       </c>
@@ -6624,7 +6037,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" ht="16.5" spans="2:12">
+    <row r="126" spans="2:12" ht="16.5">
       <c r="B126" s="48" t="s">
         <v>142</v>
       </c>
@@ -6640,7 +6053,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" ht="16.5" spans="2:12">
+    <row r="127" spans="2:12" ht="16.5">
       <c r="B127" s="48"/>
       <c r="C127" s="2" t="s">
         <v>144</v>
@@ -6656,7 +6069,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" ht="16.5" spans="2:12">
+    <row r="128" spans="2:12" ht="16.5">
       <c r="B128" s="48"/>
       <c r="C128" s="2" t="s">
         <v>146</v>
@@ -6672,7 +6085,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" ht="16.5" spans="2:12">
+    <row r="129" spans="2:12" ht="16.5">
       <c r="B129" s="48"/>
       <c r="C129" s="52" t="s">
         <v>147</v>
@@ -6687,7 +6100,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" ht="16.5" spans="2:12">
+    <row r="130" spans="2:12" ht="16.5">
       <c r="B130" s="48" t="s">
         <v>149</v>
       </c>
@@ -6702,7 +6115,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" ht="16.5" spans="2:12">
+    <row r="131" spans="2:12" ht="16.5">
       <c r="B131" s="48"/>
       <c r="C131" s="2" t="s">
         <v>151</v>
@@ -6718,7 +6131,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" ht="16.5" spans="2:12">
+    <row r="132" spans="2:12" ht="16.5">
       <c r="B132" s="48"/>
       <c r="C132" s="2" t="s">
         <v>153</v>
@@ -6734,7 +6147,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" ht="16.5" spans="2:12">
+    <row r="133" spans="2:12" ht="16.5">
       <c r="B133" s="48"/>
       <c r="C133" s="2" t="s">
         <v>155</v>
@@ -6750,7 +6163,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" ht="16.5" spans="2:12">
+    <row r="134" spans="2:12" ht="16.5">
       <c r="B134" s="48"/>
       <c r="C134" s="2" t="s">
         <v>157</v>
@@ -6767,7 +6180,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" ht="16.5" spans="2:12">
+    <row r="135" spans="2:12" ht="16.5">
       <c r="B135" s="48"/>
       <c r="C135" s="2" t="s">
         <v>159</v>
@@ -6781,7 +6194,7 @@
       <c r="H135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" ht="16.5" spans="2:12">
+    <row r="136" spans="2:12" ht="16.5">
       <c r="B136" s="48"/>
       <c r="C136" s="2" t="s">
         <v>161</v>
@@ -6798,7 +6211,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" ht="16.5" spans="2:12">
+    <row r="137" spans="2:12" ht="16.5">
       <c r="B137" s="51"/>
       <c r="C137" s="2" t="s">
         <v>163</v>
@@ -6812,7 +6225,7 @@
       <c r="H137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" ht="16.5" spans="2:12">
+    <row r="138" spans="2:12" ht="16.5">
       <c r="B138" s="51"/>
       <c r="C138" s="2" t="s">
         <v>165</v>
@@ -6826,7 +6239,7 @@
       <c r="H138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" ht="16.5" spans="2:12">
+    <row r="139" spans="2:12" ht="16.5">
       <c r="B139" s="48"/>
       <c r="C139" s="2" t="s">
         <v>167</v>
@@ -6840,7 +6253,7 @@
       <c r="H139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" ht="16.5" spans="2:12">
+    <row r="140" spans="2:12" ht="16.5">
       <c r="B140" s="48"/>
       <c r="C140" s="2" t="s">
         <v>169</v>
@@ -6854,7 +6267,7 @@
       <c r="H140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" ht="16.5" spans="2:12">
+    <row r="141" spans="2:12" ht="16.5">
       <c r="B141" s="48"/>
       <c r="C141" s="2" t="s">
         <v>171</v>
@@ -6868,7 +6281,7 @@
       <c r="H141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" ht="16.5" spans="2:12">
+    <row r="142" spans="2:12" ht="16.5">
       <c r="B142" s="48"/>
       <c r="C142" s="2" t="s">
         <v>173</v>
@@ -6882,7 +6295,7 @@
       <c r="H142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" ht="16.5" spans="2:12">
+    <row r="143" spans="2:12" ht="16.5">
       <c r="B143" s="48"/>
       <c r="C143" s="2" t="s">
         <v>175</v>
@@ -6896,7 +6309,7 @@
       <c r="H143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" ht="16.5" spans="2:12">
+    <row r="144" spans="2:12" ht="16.5">
       <c r="B144" s="48" t="s">
         <v>177</v>
       </c>
@@ -6913,7 +6326,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" ht="16.5" spans="2:12">
+    <row r="145" spans="2:12" ht="16.5">
       <c r="B145" s="48"/>
       <c r="C145" s="2" t="s">
         <v>134</v>
@@ -6929,7 +6342,7 @@
       <c r="J145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" ht="16.5" spans="2:12">
+    <row r="146" spans="2:12" ht="16.5">
       <c r="B146" s="48"/>
       <c r="C146" s="2" t="s">
         <v>180</v>
@@ -6945,7 +6358,7 @@
       <c r="J146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" ht="16.5" spans="2:12">
+    <row r="147" spans="2:12" ht="16.5">
       <c r="B147" s="48"/>
       <c r="C147" s="2" t="s">
         <v>138</v>
@@ -6959,7 +6372,7 @@
       </c>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" ht="16.5" spans="2:12">
+    <row r="148" spans="2:12" ht="16.5">
       <c r="B148" s="48"/>
       <c r="C148" s="2" t="s">
         <v>136</v>
@@ -6973,7 +6386,7 @@
       </c>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" ht="16.5" spans="2:12">
+    <row r="149" spans="2:12" ht="16.5">
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
         <v>183</v>
@@ -6989,7 +6402,7 @@
       <c r="J149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" ht="16.5" spans="2:12">
+    <row r="150" spans="2:12" ht="16.5">
       <c r="B150" s="51"/>
       <c r="C150" s="2" t="s">
         <v>185</v>
@@ -7005,7 +6418,7 @@
       <c r="J150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" ht="16.5" spans="2:10">
+    <row r="151" spans="2:12" ht="16.5">
       <c r="B151" s="51"/>
       <c r="C151" s="2" t="s">
         <v>187</v>
@@ -7020,7 +6433,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" ht="16.5" spans="2:3">
+    <row r="152" spans="2:12" ht="16.5">
       <c r="B152" s="51" t="s">
         <v>189</v>
       </c>
@@ -7028,7 +6441,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="2:7">
+    <row r="153" spans="2:12" ht="16.5">
       <c r="B153" s="51"/>
       <c r="C153" s="63" t="s">
         <v>191</v>
@@ -7040,7 +6453,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="2:10">
+    <row r="154" spans="2:12" ht="16.5">
       <c r="B154" s="51"/>
       <c r="C154" s="63" t="s">
         <v>193</v>
@@ -7053,7 +6466,7 @@
       </c>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" ht="16.5" spans="2:7">
+    <row r="155" spans="2:12" ht="16.5">
       <c r="B155" s="51"/>
       <c r="C155" s="63" t="s">
         <v>195</v>
@@ -7065,7 +6478,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="2:7">
+    <row r="156" spans="2:12" ht="16.5">
       <c r="B156" s="51"/>
       <c r="C156" s="63" t="s">
         <v>197</v>
@@ -7077,7 +6490,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="2:7">
+    <row r="157" spans="2:12" ht="16.5">
       <c r="B157" s="51"/>
       <c r="C157" s="63" t="s">
         <v>199</v>
@@ -7089,7 +6502,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="2:7">
+    <row r="158" spans="2:12" ht="16.5">
       <c r="B158" s="51"/>
       <c r="C158" s="63" t="s">
         <v>201</v>
@@ -7101,7 +6514,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="2:9">
+    <row r="159" spans="2:12" ht="16.5">
       <c r="B159" s="51"/>
       <c r="C159" s="63" t="s">
         <v>203</v>
@@ -7114,7 +6527,7 @@
       </c>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" ht="16.5" spans="2:7">
+    <row r="160" spans="2:12" ht="16.5">
       <c r="B160" s="51"/>
       <c r="C160" s="63" t="s">
         <v>205</v>
@@ -7126,7 +6539,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="2:7">
+    <row r="161" spans="2:10" ht="16.5">
       <c r="B161" s="51"/>
       <c r="C161" s="63" t="s">
         <v>207</v>
@@ -7138,7 +6551,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="2:10">
+    <row r="162" spans="2:10" ht="16.5">
       <c r="B162" s="51"/>
       <c r="C162" s="63" t="s">
         <v>208</v>
@@ -7152,7 +6565,7 @@
       <c r="I162" s="57"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" ht="16.5" spans="2:10">
+    <row r="163" spans="2:10" ht="16.5">
       <c r="B163" s="51"/>
       <c r="C163" s="63" t="s">
         <v>210</v>
@@ -7166,7 +6579,7 @@
       <c r="I163" s="56"/>
       <c r="J163" s="56"/>
     </row>
-    <row r="164" ht="16.5" spans="2:7">
+    <row r="164" spans="2:10" ht="16.5">
       <c r="B164" s="51"/>
       <c r="C164" s="63" t="s">
         <v>212</v>
@@ -7178,7 +6591,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="2:3">
+    <row r="165" spans="2:10" ht="16.5">
       <c r="B165" s="48" t="s">
         <v>214</v>
       </c>
@@ -7186,7 +6599,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="2:8">
+    <row r="166" spans="2:10" ht="16.5">
       <c r="B166" s="51"/>
       <c r="C166" s="2" t="s">
         <v>216</v>
@@ -7197,7 +6610,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" ht="16.5" spans="2:8">
+    <row r="167" spans="2:10" ht="16.5">
       <c r="B167" s="51"/>
       <c r="C167" s="2" t="s">
         <v>217</v>
@@ -7210,22 +6623,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C73:L73" location="对应!A1" display="其次，至对应表查询，是否有新增保险公司，是否有更名的保险公司"/>
-    <hyperlink ref="C83" location="对应!A1" display="其次，至对应表查询，是否有新增保险公司，是否有更名的保险公司"/>
-    <hyperlink ref="C83:K83" location="对应!A1" display="其次，至对应表查询，是否有新增保险公司，是否有更名的保险公司"/>
-    <hyperlink ref="C92" r:id="rId1" display="2018 年人身保险公司原保险保费收入情况表"/>
-    <hyperlink ref="C162:I162" r:id="rId1" display="中航安盟"/>
-    <hyperlink ref="C93:G93" r:id="rId2" display="保监会人身险产品备案"/>
-    <hyperlink ref="C94:H94" r:id="rId3" display="保监会人身保险公司保费收入情况表"/>
-    <hyperlink ref="C95:H95" r:id="rId4" display="企业信用公示系统或企查查"/>
-    <hyperlink ref="C96" r:id="rId5" display="2018 年财产保险公司原保险保费收入情况表"/>
-    <hyperlink ref="C97" r:id="rId6" display="保监会财产险产品备案"/>
-    <hyperlink ref="C98" r:id="rId7" display="保监会财产保险公司保费收入情况表"/>
-    <hyperlink ref="C92:H92" r:id="rId8" display="2018 年人身保险公司原保险保费收入情况表"/>
-    <hyperlink ref="C96:H96" r:id="rId9" display="2018 年财产保险公司原保险保费收入情况表"/>
+    <hyperlink ref="C73:L73" location="对应!A1" display="其次，至对应表查询，是否有新增保险公司，是否有更名的保险公司" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C83" location="对应!A1" display="其次，至对应表查询，是否有新增保险公司，是否有更名的保险公司" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C83:K83" location="对应!A1" display="其次，至对应表查询，是否有新增保险公司，是否有更名的保险公司" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C92" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C162:I162" r:id="rId2" display="中航安盟" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C93:G93" r:id="rId3" display="保监会人身险产品备案" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C94:H94" r:id="rId4" display="保监会人身保险公司保费收入情况表" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C95:H95" r:id="rId5" display="企业信用公示系统或企查查" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C96" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C97" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C98" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C92:H92" r:id="rId9" display="2018 年人身保险公司原保险保费收入情况表" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C96:H96" r:id="rId10" display="2018 年财产保险公司原保险保费收入情况表" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B36 B39:B50 B52:B67 C103:H106 D128:E128 C126:H126 C131:H143 C130:H130 C145:G151 C144:H144 C153:H164 C152:H152 B166:H167 C165:H165 I118:K119 I100:L112 I93:L98 D102:H102 C108:H111 D107:H107 C113:H119 C112:H112 C121:G124 C120:H120 B92:B98 B121:B124 B113:B119 B108:B111 B153:B164 B145:B151 B131:B143 B127:B129 B103:B106 B102 B107 B130 B144 B152 B165 B112 B120 B125:B126 D129 G129:H129 D127:E127 G127:H127 G128:H128 L113:L116 I125:K136 K124 I144:K144 I152:K159 K145:K151" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -7233,28 +6645,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="11" customWidth="1"/>
-    <col min="4" max="6" width="11.375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="40.125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.47265625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="6.47265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="25.734375" style="11" customWidth="1"/>
+    <col min="4" max="6" width="11.3671875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="17.89453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="23.1015625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="17.89453125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="40.1015625" style="18" customWidth="1"/>
     <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="19.8" spans="1:10">
+    <row r="1" spans="1:10" s="16" customFormat="1" ht="19.8">
       <c r="A1" s="19" t="s">
         <v>218</v>
       </c>
@@ -7286,7 +6697,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" s="17" customFormat="1">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -7318,7 +6729,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" spans="1:10">
+    <row r="3" spans="1:10" s="17" customFormat="1">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -7350,7 +6761,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" spans="1:10">
+    <row r="4" spans="1:10" s="17" customFormat="1">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -7382,7 +6793,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" spans="1:10">
+    <row r="5" spans="1:10" s="17" customFormat="1">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -7414,7 +6825,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" spans="1:10">
+    <row r="6" spans="1:10" s="17" customFormat="1">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -7446,7 +6857,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" spans="1:10">
+    <row r="7" spans="1:10" s="17" customFormat="1">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -7478,67 +6889,67 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="28">
+    <row r="8" spans="1:10" s="17" customFormat="1">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>35384</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <v>35384</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="27">
         <v>35384</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="32" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="28">
+    <row r="9" spans="1:10" s="17" customFormat="1">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="27">
         <v>36084</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="27">
         <v>36080</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="27">
         <v>36084</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7702,7 +7113,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" spans="1:10">
+    <row r="15" spans="1:10" s="17" customFormat="1">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -13068,116 +12479,115 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J35" r:id="rId3" display="http://www.ssac.com.cn/"/>
-    <hyperlink ref="J55" r:id="rId4" display="http://www.sinosig.com/"/>
-    <hyperlink ref="J5" r:id="rId5" display="http://www.aia.com.cn/" tooltip="http://www.aia.com.cn/"/>
-    <hyperlink ref="J3" r:id="rId6" display="http://life.pingan.com/"/>
-    <hyperlink ref="J4" r:id="rId7" display="http://life.cpic.com.cn/" tooltip="http://life.cpic.com.cn/"/>
-    <hyperlink ref="J6" r:id="rId8" display="http://www.taikanglife.com/" tooltip="http://www.taikanglife.com/"/>
-    <hyperlink ref="J7" r:id="rId9" display="http://www.newchinalife.com/" tooltip="http://www.newchinalife.com/"/>
-    <hyperlink ref="J8" r:id="rId10" display="http://www.manulife-sinochem.com/"/>
-    <hyperlink ref="J9" r:id="rId11" display="http://www.ccb-life.com.cn/"/>
-    <hyperlink ref="J10" r:id="rId12" display="https://www.allianz.com.cn/"/>
-    <hyperlink ref="J11" r:id="rId13" display="https://www.icbc-axa.com/"/>
-    <hyperlink ref="J12" r:id="rId14" display="http://www.bocommlife.com/"/>
-    <hyperlink ref="J13" r:id="rId15" display="http://www.citic-prudential.com.cn/"/>
-    <hyperlink ref="J14" r:id="rId16" display="http://www.tianan-life.com/"/>
-    <hyperlink ref="J15" r:id="rId17" display="http://life.cntaiping.com/"/>
-    <hyperlink ref="J16" r:id="rId18" display="http://www.generalichina.com/"/>
-    <hyperlink ref="J17" r:id="rId19" display="http://www.sino-life.com/"/>
-    <hyperlink ref="J18" r:id="rId20" display="http://www.sunlife-everbright.com/"/>
-    <hyperlink ref="J19" r:id="rId21" display="http://www.minshenglife.com/"/>
-    <hyperlink ref="J20" r:id="rId22" display="http://www.bob-cardif.com/"/>
-    <hyperlink ref="J21" r:id="rId23" display="http://www.pkufi.com/"/>
-    <hyperlink ref="J22" r:id="rId24" display="http://www.aviva-cofco.com.cn/"/>
-    <hyperlink ref="J23" r:id="rId25" display="http://www.aegonthtf.com/"/>
-    <hyperlink ref="J24" r:id="rId26" display="http://www.cignacmb.com/"/>
-    <hyperlink ref="J25" r:id="rId27" display="http://www.gwcslife.com/"/>
-    <hyperlink ref="J26" r:id="rId28" display="http://www.hengansl.com/"/>
-    <hyperlink ref="J28" r:id="rId29" display="http://www.oldmutual-guodian.com/"/>
-    <hyperlink ref="J29" r:id="rId30" display="http://yl.pingan.com/"/>
-    <hyperlink ref="J30" r:id="rId31" display="http://tppension.cntaiping.com/"/>
-    <hyperlink ref="J31" r:id="rId32" display="https://www.cathaylife.com.tw/"/>
-    <hyperlink ref="J32" r:id="rId33" display="http://www.unionlife.com.cn/"/>
-    <hyperlink ref="J33" r:id="rId34" display="http://life.ehuatai.com/"/>
-    <hyperlink ref="J34" r:id="rId35" display="http://www.picchealth.com/"/>
-    <hyperlink ref="J36" r:id="rId36" display="https://health.pingan.com/"/>
-    <hyperlink ref="J37" r:id="rId37" display="https://www.metlife.com.cn/"/>
-    <hyperlink ref="J38" r:id="rId38" display="http://www.greatlife.cn/"/>
-    <hyperlink ref="J39" r:id="rId39" display="http://www.picclife.com/"/>
-    <hyperlink ref="J40" r:id="rId40" display="http://www.abchinalife.cn/"/>
-    <hyperlink ref="J41" r:id="rId41" display="http://www.sfli.com.cn/"/>
-    <hyperlink ref="J42" r:id="rId42" display="http://www.hexiehealth.com/"/>
-    <hyperlink ref="J43" r:id="rId43" display="https://www.kunlunhealth.com.cn/"/>
-    <hyperlink ref="J44" r:id="rId44" display="http://www.lifeisgreat.com.cn/"/>
-    <hyperlink ref="J45" r:id="rId45" display="http://www.cic.cn/"/>
-    <hyperlink ref="J46" r:id="rId46" display="http://www.jklife.com/"/>
-    <hyperlink ref="J47" r:id="rId47" display="http://hxgw.hualife.cc/"/>
-    <hyperlink ref="J48" r:id="rId48" display="http://www.chinalifepension.cn/"/>
-    <hyperlink ref="J49" r:id="rId49" display="http://www.xintai.com/"/>
-    <hyperlink ref="J50" r:id="rId50" display="http://www.cj-pension.com.cn/cjyl/CN/"/>
-    <hyperlink ref="J51" r:id="rId51" display="http://www.ydthlife.com/"/>
-    <hyperlink ref="J52" r:id="rId52" display="http://tkyl.pension.taikang.com/"/>
-    <hyperlink ref="J53" r:id="rId53" display="http://www.happyinsurance.com.cn/"/>
-    <hyperlink ref="J54" r:id="rId54" display="http://www.95549.cn/"/>
-    <hyperlink ref="J56" r:id="rId55" display="http://www.kdlins.com.cn/"/>
-    <hyperlink ref="J57" r:id="rId56" display="http://www.skl-hna.com/"/>
-    <hyperlink ref="J58" r:id="rId57" display="http://www.aeonlife.com.cn/"/>
-    <hyperlink ref="J59" r:id="rId58" display="http://www.hsbcinsurance.com.cn/"/>
-    <hyperlink ref="J60" r:id="rId59" display="http://www.chinapost-life.com/"/>
-    <hyperlink ref="J61" r:id="rId60" display="http://www.zhongronglife.com/"/>
-    <hyperlink ref="J62" r:id="rId61" display="http://www.anbang-life.com/"/>
-    <hyperlink ref="J63" r:id="rId62" display="http://www.lianlife.cc/"/>
-    <hyperlink ref="J64" r:id="rId63" display="http://www.sciclife.com/"/>
-    <hyperlink ref="J65" r:id="rId64" display="https://www.foresealife.com/"/>
-    <hyperlink ref="J66" r:id="rId65" display="http://www.soochowlife.net/"/>
-    <hyperlink ref="J67" r:id="rId66" display="https://hongkang-life.com/"/>
-    <hyperlink ref="J68" r:id="rId67" display="http://www.jxlife.com.cn/"/>
-    <hyperlink ref="J69" r:id="rId68" display="https://www.pflife.com.cn/"/>
-    <hyperlink ref="J70" r:id="rId69" display="https://www.prlife.com.cn/"/>
-    <hyperlink ref="J71" r:id="rId70" display="https://www.sinokorealife.com.cn/"/>
-    <hyperlink ref="J72" r:id="rId71" display="https://www.ergo-life.cn/"/>
-    <hyperlink ref="J73" r:id="rId72" display="http://www.anbangannuity.com/"/>
-    <hyperlink ref="J74" r:id="rId73" display="http://health.cpic.com.cn/"/>
-    <hyperlink ref="J75" r:id="rId74" display="http://www.bohailife.net/"/>
-    <hyperlink ref="J76" r:id="rId75" display="https://www.guolian-life.com/"/>
-    <hyperlink ref="J77" r:id="rId76" display="http://www.shanghailife.com.cn/"/>
-    <hyperlink ref="J92" r:id="rId77" display="http://www.e-guofu.com/"/>
-    <hyperlink ref="J78" r:id="rId78" display="http://www.newchinapension.com/"/>
-    <hyperlink ref="J79" r:id="rId79" display="http://www.hqins.cn/"/>
-    <hyperlink ref="J80" r:id="rId80" display="http://www.fosun-uhi.com/"/>
-    <hyperlink ref="J81" r:id="rId81" display="https://www.htlic.com/"/>
-    <hyperlink ref="J82" r:id="rId82" display="https://www.huaguilife.cn/"/>
-    <hyperlink ref="J83" r:id="rId83" display="https://www.trustlife.com/"/>
-    <hyperlink ref="J84" r:id="rId84" display="http://www.aixin-ins.com/"/>
-    <hyperlink ref="J85" r:id="rId85" display="https://www.cmrh.com/"/>
-    <hyperlink ref="J86" r:id="rId86" display="https://www.picc-pension.com.cn/"/>
-    <hyperlink ref="J87" r:id="rId87" display="http://www.tg-life.com.cn/"/>
-    <hyperlink ref="J88" r:id="rId88" display="https://www.beijinglife.com.cn/"/>
-    <hyperlink ref="J89" r:id="rId89" display="http://www.guobaojinrong.cn/"/>
-    <hyperlink ref="J90" r:id="rId90" display="https://www.rhassurance.com/rhOffic/home"/>
-    <hyperlink ref="J91" r:id="rId91" display="https://www.haibao-life.com/"/>
-    <hyperlink ref="J2" r:id="rId92" display="http://www.e-chinalife.com/" tooltip="http://www.e-chinalife.com/"/>
-    <hyperlink ref="J94" r:id="rId93" display="https://www.aia.com.hk/zh-hk/index.html"/>
-    <hyperlink ref="J93" r:id="rId94" display="https://www.prudential.com.hk/"/>
-    <hyperlink ref="J95" r:id="rId95" display="http://www.epicc.com.cn/"/>
-    <hyperlink ref="J96" r:id="rId96" display="http://e.cic.cn/"/>
-    <hyperlink ref="J114" r:id="rId97" display="http://www.ccic-net.com.cn/www/resource/2018/index.jsp"/>
-    <hyperlink ref="J158" r:id="rId98" display="https://www.cnoic.com/"/>
-    <hyperlink ref="J162" r:id="rId99" display="http://www.zhlic.com.cn/"/>
-    <hyperlink ref="J123" r:id="rId100" display="https://www.apiins.com/maechannel/home.do"/>
-    <hyperlink ref="J159" r:id="rId101" display="http://www.hbins.com.cn/"/>
-    <hyperlink ref="J106" r:id="rId102" display="http://baoxian.chubb.com.cn/"/>
+    <hyperlink ref="J35" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J55" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J5" r:id="rId3" tooltip="http://www.aia.com.cn/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" tooltip="http://life.cpic.com.cn/" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J6" r:id="rId6" tooltip="http://www.taikanglife.com/" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="J7" r:id="rId7" tooltip="http://www.newchinalife.com/" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="J8" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="J9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="J10" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J12" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="J13" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="J14" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="J16" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="J17" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="J18" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="J19" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J20" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="J21" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="J22" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="J23" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="J24" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="J25" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="J26" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="J28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="J29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="J30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="J31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="J32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="J33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="J34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="J36" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="J37" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="J38" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="J39" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="J40" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="J41" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="J42" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="J43" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="J44" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="J45" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="J46" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="J47" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="J48" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="J49" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="J50" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="J51" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="J52" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="J53" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="J54" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="J56" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="J57" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="J58" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="J59" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="J60" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="J61" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="J62" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="J63" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="J64" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="J65" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="J66" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="J67" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="J68" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="J69" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="J70" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="J71" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="J72" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="J73" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="J74" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="J75" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="J76" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="J77" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="J92" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="J78" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="J79" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="J80" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="J81" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="J82" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="J83" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="J84" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="J85" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="J86" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="J87" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="J88" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="J89" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="J90" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="J91" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="J2" r:id="rId90" tooltip="http://www.e-chinalife.com/" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="J94" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="J93" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="J95" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="J96" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="J114" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="J158" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="J162" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="J123" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="J159" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="J106" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
+  <legacyDrawing r:id="rId102"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13187,19 +12597,19 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="3.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.47265625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="17.89453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.1015625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="3.62890625" style="10" customWidth="1"/>
     <col min="7" max="7" width="13" style="11" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="19.62890625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.89453125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.3671875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.26171875" style="11" customWidth="1"/>
     <col min="12" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="19.8" spans="1:11">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="19.8">
       <c r="A1" s="6" t="s">
         <v>1044</v>
       </c>
@@ -13232,7 +12642,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -13265,7 +12675,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="15.6">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -13298,7 +12708,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -13331,7 +12741,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -13364,7 +12774,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -13397,7 +12807,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="15.6">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -13430,7 +12840,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -13463,7 +12873,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="15.6">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -13496,7 +12906,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="15.6">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -13529,7 +12939,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="15.6">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -13562,7 +12972,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="15.6">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -13595,7 +13005,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="15.6">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -13628,7 +13038,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="15.6">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -13661,7 +13071,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -13694,7 +13104,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="15.6">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -13727,7 +13137,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="15.6">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -13760,7 +13170,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="15.6">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -13793,7 +13203,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="15.6">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -13826,7 +13236,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="15.6">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -13859,7 +13269,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="15.6">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -13892,7 +13302,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="15.6">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -13925,7 +13335,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="15.6">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -13958,7 +13368,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="15.6">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -13991,7 +13401,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="15.6">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -14024,7 +13434,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="15.6">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -14057,7 +13467,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="15.6">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -14090,7 +13500,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="15.6">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -14123,7 +13533,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="15.6">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -14156,7 +13566,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="15.6">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -14189,7 +13599,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="15.6">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -14222,7 +13632,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="15.6">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -14255,7 +13665,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="15.6">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -14288,7 +13698,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="15.6">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -14321,7 +13731,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="15.6">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -14354,7 +13764,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="15.6">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -14387,7 +13797,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="15.6">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -14420,7 +13830,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="15.6">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -14453,7 +13863,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="15.6">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -14486,7 +13896,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="15.6">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -14519,7 +13929,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="15.6">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -14552,7 +13962,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="15.6">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -14585,7 +13995,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="15.6">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -14618,7 +14028,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="15.6">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -14651,7 +14061,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="15.6">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -14684,7 +14094,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="15.6">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -14717,7 +14127,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="15.6">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -14750,7 +14160,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="15.6">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -14783,7 +14193,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" ht="15.6">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -14816,7 +14226,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" ht="15.6">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -14849,7 +14259,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="15.6">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -14882,7 +14292,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" ht="15.6">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -14915,7 +14325,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="15.6">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -14948,7 +14358,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" ht="15.6">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -14981,7 +14391,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" ht="15.6">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -15014,7 +14424,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" ht="15.6">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -15047,7 +14457,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="15.6">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -15080,7 +14490,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" ht="15.6">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -15113,7 +14523,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" ht="15.6">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -15146,7 +14556,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" ht="15.6">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -15179,7 +14589,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" ht="15.6">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -15212,7 +14622,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" ht="15.6">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -15245,7 +14655,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="15.6">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -15278,7 +14688,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="15.6">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -15311,7 +14721,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" ht="15.6">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -15344,7 +14754,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" ht="15.6">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -15377,7 +14787,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" ht="15.6">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -15410,7 +14820,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" ht="15.6">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -15443,7 +14853,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" ht="15.6">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -15476,7 +14886,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" ht="15.6">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -15509,7 +14919,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" ht="15.6">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -15542,7 +14952,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" ht="15.6">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -15575,7 +14985,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" ht="15.6">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -15608,7 +15018,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" ht="15.6">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -15641,7 +15051,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" ht="15.6">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -15674,7 +15084,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" ht="15.6">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -15707,7 +15117,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" ht="15.6">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -15740,7 +15150,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" ht="15.6">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -15773,7 +15183,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" ht="15.6">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -15806,7 +15216,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" ht="15.6">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -15839,7 +15249,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" ht="15.6">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -15872,7 +15282,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" ht="15.6">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -15905,7 +15315,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" ht="15.6">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -15938,7 +15348,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" ht="15.6">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -15971,7 +15381,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" ht="15.6">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -16004,7 +15414,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" ht="15.6">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -16037,7 +15447,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" ht="15.6">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -16070,7 +15480,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" ht="15.6">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -16103,7 +15513,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" ht="15.6">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -16136,7 +15546,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:11" ht="15.6">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -16154,7 +15564,7 @@
       </c>
       <c r="F90" s="14"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:11" ht="15.6">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -16172,7 +15582,7 @@
       </c>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:11" ht="15.6">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -16192,18 +15602,16 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K89 E2:F92 E181:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K89 E2:F92 E181:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"R,S"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16212,21 +15620,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="3" customWidth="1"/>
-    <col min="3" max="6" width="11.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.62890625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.26171875" style="3" customWidth="1"/>
+    <col min="3" max="6" width="11.734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.1015625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.26171875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.89453125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.2" spans="1:1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.2">
       <c r="A1" s="4" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="1:9">
       <c r="B2" s="5" t="s">
         <v>1113</v>
       </c>
@@ -16238,7 +15646,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="1:9">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -16248,7 +15656,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="1:9">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -16258,7 +15666,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="1:9">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -16268,7 +15676,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" ht="19.8" spans="2:9">
+    <row r="6" spans="1:9" ht="19.8">
       <c r="B6" s="6" t="s">
         <v>1044</v>
       </c>
@@ -16294,7 +15702,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="1:9">
       <c r="B7" s="7">
         <v>1</v>
       </c>
@@ -16318,7 +15726,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="1:9">
       <c r="B8" s="7">
         <v>2</v>
       </c>
@@ -16344,7 +15752,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="1:9">
       <c r="B9" s="7">
         <v>3</v>
       </c>
@@ -16370,7 +15778,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="1:9">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -16380,7 +15788,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="1:9">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -16390,7 +15798,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:9">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -16402,7 +15810,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="1:9">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -16412,7 +15820,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="1:9">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -16422,7 +15830,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="1:9">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -16432,7 +15840,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="1:9">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -16564,16 +15972,15 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C9:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C9:C1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"新增公司,公司更名,原数据出错"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"更名,新增"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>